--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -468,6 +473,9 @@
       <c r="D2" t="n">
         <v>92</v>
       </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -482,6 +490,9 @@
       <c r="D3" t="n">
         <v>82</v>
       </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -496,6 +507,9 @@
       <c r="D4" t="n">
         <v>36</v>
       </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -510,6 +524,9 @@
       <c r="D5" t="n">
         <v>79</v>
       </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -524,6 +541,9 @@
       <c r="D6" t="n">
         <v>61</v>
       </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -537,6 +557,9 @@
       </c>
       <c r="D7" t="n">
         <v>32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
